--- a/data/2.2/Quantitative/2 2 Socio-Cultural Gaps.xlsx
+++ b/data/2.2/Quantitative/2 2 Socio-Cultural Gaps.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmadou.mboup\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25915"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="13140" windowHeight="15540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Social gaps - wages" sheetId="1" r:id="rId1"/>
@@ -24,8 +19,11 @@
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="165">
   <si>
     <t>WAGE EQUALITY by country and sub-region</t>
   </si>
@@ -451,9 +449,6 @@
     <t>MICS</t>
   </si>
   <si>
-    <t xml:space="preserve">Central African Republic </t>
-  </si>
-  <si>
     <t>SHHS</t>
   </si>
   <si>
@@ -493,9 +488,6 @@
     <t>2006-2007</t>
   </si>
   <si>
-    <t>Sub-Saharan Africa</t>
-  </si>
-  <si>
     <t>http://www.unodc.org/documents/gsh/pdfs/2014_GLOBAL_HOMICIDE_BOOK_web.pdf</t>
   </si>
   <si>
@@ -530,6 +522,12 @@
   </si>
   <si>
     <t>Oceania</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -537,11 +535,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -625,9 +623,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -667,183 +664,183 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -852,7 +849,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -860,17 +857,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -880,7 +877,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -888,12 +885,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,18 +899,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,21 +932,21 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -958,7 +955,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -966,7 +963,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -974,12 +971,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,14 +985,14 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1005,70 +1002,66 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1077,18 +1070,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -1102,7 +1089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1156,7 +1143,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1169,27 +1156,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="29" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 3" xfId="7"/>
-    <cellStyle name="Normal 3 2" xfId="9"/>
-    <cellStyle name="Normal_Low birth weight SOWC 2008" xfId="8"/>
+    <cellStyle name="Normal 3 2" xfId="8"/>
     <cellStyle name="Normal_Table 9 Child protection SOWC 2005" xfId="6"/>
     <cellStyle name="Normal_Table 9 DRAFT Child protection SOWC 2006" xfId="4"/>
     <cellStyle name="Normal_Table 9 Protection SOWC 2007" xfId="5"/>
@@ -1256,26 +1252,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1289,7 +1265,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Wage equality by region'!$K$6</c:f>
+              <c:f>'[African%20women%20in%20numbers.xlsx]Wage equality by region'!$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1335,7 +1311,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1456,79 +1432,79 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>495</c:v>
+                  <c:v>495.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>707</c:v>
+                  <c:v>707.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>794</c:v>
+                  <c:v>794.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>818</c:v>
+                  <c:v>818.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>917</c:v>
+                  <c:v>917.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1128</c:v>
+                  <c:v>1128.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1139</c:v>
+                  <c:v>1139.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1141</c:v>
+                  <c:v>1141.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1214</c:v>
+                  <c:v>1214.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1284</c:v>
+                  <c:v>1284.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1302</c:v>
+                  <c:v>1302.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1314</c:v>
+                  <c:v>1314.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1322</c:v>
+                  <c:v>1322.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1384</c:v>
+                  <c:v>1384.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1413</c:v>
+                  <c:v>1413.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1493</c:v>
+                  <c:v>1493.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1637</c:v>
+                  <c:v>1637.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1816</c:v>
+                  <c:v>1816.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1940</c:v>
+                  <c:v>1940.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2839</c:v>
+                  <c:v>2839.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4717</c:v>
+                  <c:v>4717.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5712</c:v>
+                  <c:v>5712.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7950</c:v>
+                  <c:v>7950.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9812</c:v>
+                  <c:v>9812.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10868</c:v>
+                  <c:v>10868.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,7 +1515,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Wage equality by region'!$L$6</c:f>
+              <c:f>'[African%20women%20in%20numbers.xlsx]Wage equality by region'!$L$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1585,7 +1561,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1706,79 +1682,79 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>628</c:v>
+                  <c:v>628.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1714</c:v>
+                  <c:v>1714.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1010</c:v>
+                  <c:v>1010.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1140</c:v>
+                  <c:v>1140.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1360</c:v>
+                  <c:v>1360.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4058</c:v>
+                  <c:v>4058.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1563</c:v>
+                  <c:v>1563.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1844</c:v>
+                  <c:v>1844.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1816</c:v>
+                  <c:v>1816.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1883</c:v>
+                  <c:v>1883.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1899</c:v>
+                  <c:v>1899.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2736</c:v>
+                  <c:v>2736.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2094</c:v>
+                  <c:v>2094.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2139</c:v>
+                  <c:v>2139.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2497</c:v>
+                  <c:v>2497.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2447</c:v>
+                  <c:v>2447.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2466</c:v>
+                  <c:v>2466.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2868</c:v>
+                  <c:v>2868.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3357</c:v>
+                  <c:v>3357.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6038</c:v>
+                  <c:v>6038.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7526</c:v>
+                  <c:v>7526.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9371</c:v>
+                  <c:v>9371.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15145</c:v>
+                  <c:v>15145.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21630</c:v>
+                  <c:v>21630.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23047</c:v>
+                  <c:v>23047.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,11 +1769,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="334243696"/>
-        <c:axId val="334242128"/>
+        <c:axId val="2096130232"/>
+        <c:axId val="2096126648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="334243696"/>
+        <c:axId val="2096130232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,10 +1813,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334242128"/>
+        <c:crossAx val="2096126648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1848,7 +1824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334242128"/>
+        <c:axId val="2096126648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,26 +1879,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1952,10 +1908,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334243696"/>
+        <c:crossAx val="2096130232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1995,7 +1951,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2025,7 +1981,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2081,7 +2037,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2118,22 +2073,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,11 +2162,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="236514008"/>
-        <c:axId val="236514400"/>
+        <c:axId val="2098296840"/>
+        <c:axId val="2098300568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="236514008"/>
+        <c:axId val="2098296840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,10 +2206,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236514400"/>
+        <c:crossAx val="2098300568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2262,7 +2217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236514400"/>
+        <c:axId val="2098300568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,10 +2265,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236514008"/>
+        <c:crossAx val="2098296840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2351,12 +2306,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2405,7 +2360,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2442,49 +2396,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2585,11 +2539,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="336056792"/>
-        <c:axId val="336057184"/>
+        <c:axId val="2098332360"/>
+        <c:axId val="2098336104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="336056792"/>
+        <c:axId val="2098332360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,10 +2583,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336057184"/>
+        <c:crossAx val="2098336104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2640,7 +2594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336057184"/>
+        <c:axId val="2098336104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,10 +2642,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336056792"/>
+        <c:crossAx val="2098332360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2729,12 +2683,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2783,7 +2737,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2820,16 +2773,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2876,11 +2829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="336057968"/>
-        <c:axId val="336058360"/>
+        <c:axId val="2050731064"/>
+        <c:axId val="2050734808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="336057968"/>
+        <c:axId val="2050731064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2920,10 +2873,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336058360"/>
+        <c:crossAx val="2050734808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2931,7 +2884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336058360"/>
+        <c:axId val="2050734808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2979,10 +2932,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336057968"/>
+        <c:crossAx val="2050731064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3020,12 +2973,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3110,16 +3063,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,11 +3119,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="336059144"/>
-        <c:axId val="336059536"/>
+        <c:axId val="2098352136"/>
+        <c:axId val="2098355928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="336059144"/>
+        <c:axId val="2098352136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,10 +3163,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336059536"/>
+        <c:crossAx val="2098355928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3221,7 +3174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336059536"/>
+        <c:axId val="2098355928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,10 +3222,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336059144"/>
+        <c:crossAx val="2098352136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3310,12 +3263,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3402,37 +3355,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3500,11 +3453,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="336060320"/>
-        <c:axId val="336879648"/>
+        <c:axId val="2098390536"/>
+        <c:axId val="2098394296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="336060320"/>
+        <c:axId val="2098390536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3544,10 +3497,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336879648"/>
+        <c:crossAx val="2098394296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3555,7 +3508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336879648"/>
+        <c:axId val="2098394296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,10 +3556,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336060320"/>
+        <c:crossAx val="2098390536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3644,12 +3597,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3695,7 +3648,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3712,10 +3664,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.7163560232725076E-2"/>
-          <c:y val="4.2549910640442314E-2"/>
-          <c:w val="0.93884605787942177"/>
-          <c:h val="0.88173163717899949"/>
+          <c:x val="0.0471635602327251"/>
+          <c:y val="0.0425499106404423"/>
+          <c:w val="0.938846057879422"/>
+          <c:h val="0.881731637179"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3727,7 +3679,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Women &amp; Banking'!$C$7</c:f>
+              <c:f>'[African%20women%20in%20numbers.xlsx]Women &amp; Banking'!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3881,127 +3833,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4016,11 +3968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="336880432"/>
-        <c:axId val="336880824"/>
+        <c:axId val="2098427864"/>
+        <c:axId val="2098431624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="336880432"/>
+        <c:axId val="2098427864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4060,10 +4012,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336880824"/>
+        <c:crossAx val="2098431624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4071,7 +4023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336880824"/>
+        <c:axId val="2098431624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4119,10 +4071,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336880432"/>
+        <c:crossAx val="2098427864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4160,12 +4112,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4213,7 +4165,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4229,7 +4181,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]WOMEN AND PRIVATE SECTOR BUSINS'!$C$4</c:f>
+              <c:f>'[African%20women%20in%20numbers.xlsx]WOMEN AND PRIVATE SECTOR BUSINS'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4441,7 +4393,7 @@
                   <c:v>53.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>49.8</c:v>
@@ -4462,10 +4414,10 @@
                   <c:v>40.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.299999999999997</c:v>
+                  <c:v>35.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>34.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>33.4</c:v>
@@ -4513,25 +4465,25 @@
                   <c:v>21.3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.899999999999999</c:v>
+                  <c:v>19.9</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>18.4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>17.6</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>17.3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16.899999999999999</c:v>
+                  <c:v>16.9</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>15.7</c:v>
@@ -4559,11 +4511,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="277556416"/>
-        <c:axId val="234190880"/>
+        <c:axId val="2097482968"/>
+        <c:axId val="2097486712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="277556416"/>
+        <c:axId val="2097482968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4603,10 +4555,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234190880"/>
+        <c:crossAx val="2097486712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4614,7 +4566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234190880"/>
+        <c:axId val="2097486712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4662,10 +4614,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277556416"/>
+        <c:crossAx val="2097482968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4703,12 +4655,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4897,7 +4849,7 @@
                   <c:v>7.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10.8</c:v>
@@ -4939,7 +4891,7 @@
                   <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>16.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>16.7</c:v>
@@ -4948,13 +4900,13 @@
                   <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>17.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>19.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>21.6</c:v>
@@ -4984,11 +4936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="247"/>
-        <c:axId val="234191664"/>
-        <c:axId val="234192056"/>
+        <c:axId val="2097521160"/>
+        <c:axId val="2097525080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="234191664"/>
+        <c:axId val="2097521160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5042,10 +4994,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234192056"/>
+        <c:crossAx val="2097525080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5053,7 +5005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234192056"/>
+        <c:axId val="2097525080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5101,10 +5053,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234191664"/>
+        <c:crossAx val="2097521160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5152,12 +5104,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6286,7 +6238,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Women &amp; Banking"/>
@@ -7158,41 +7110,6 @@
         <row r="8">
           <cell r="A8" t="str">
             <v>Asia</v>
-          </cell>
-          <cell r="B8">
-            <v>19700</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Africa</v>
-          </cell>
-          <cell r="B9">
-            <v>13400</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Americas</v>
-          </cell>
-          <cell r="B10">
-            <v>6900</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Europe</v>
-          </cell>
-          <cell r="B11">
-            <v>3300</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Oceania</v>
-          </cell>
-          <cell r="B12">
-            <v>200</v>
           </cell>
         </row>
       </sheetData>
@@ -7553,7 +7470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7588,7 +7505,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7765,7 +7682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7775,1105 +7692,1105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="42">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>D6/E6</f>
         <v>0.62676056338028174</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>4717</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>7526</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <f>D7/E7</f>
         <v>0.63319386331938632</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1816</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>2868</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>0.78821656050955413</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>495</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>628</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <f>D8/E8</f>
         <v>0.61876355748373102</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>1141</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>1844</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>0.41248541423570595</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>707</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>1714</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:12" ht="15" thickBot="1">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="I9" s="10">
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="I9" s="9">
         <v>0.78613861386138617</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>794</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>1010</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="I10" s="12">
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="I10" s="11">
         <v>0.71754385964912282</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>818</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>1140</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="I11" s="10">
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="I11" s="9">
         <v>0.67426470588235299</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>917</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="I12" s="10">
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="I12" s="9">
         <v>0.27796944307540661</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>1128</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>4058</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:12" ht="15" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="I13" s="10">
+      <c r="C13" s="14"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="I13" s="9">
         <v>0.7287268074216251</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>1139</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>1563</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <f>D14/E14</f>
         <v>0.78821656050955413</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>495</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>628</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>0.61876355748373102</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>1141</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>1844</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="I15" s="10">
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="I15" s="9">
         <v>0.66850220264317184</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>1214</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>1816</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="I16" s="10">
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="I16" s="9">
         <v>0.6818906001062135</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>1284</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>1883</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:12">
+      <c r="A17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="I17" s="10">
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="I17" s="9">
         <v>0.6856240126382307</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>1302</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>1899</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:12" ht="15" thickBot="1">
+      <c r="A18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <f>D18/E18</f>
         <v>0.67426470588235299</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>917</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>1360</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>0.48026315789473684</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>1314</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>2736</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <f>D19/E19</f>
         <v>0.64703132304815336</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>1384</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>2139</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <v>0.63132760267430754</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>1322</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>2094</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <f>D20/E20</f>
         <v>0.71754385964912282</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>818</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>1140</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>0.64703132304815336</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>1384</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>2139</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <f>D21/E21</f>
         <v>0.78613861386138617</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>794</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>1010</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>0.565879054865839</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <v>1413</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>2497</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:12" ht="15" thickBot="1">
+      <c r="A22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <f>D22/E22</f>
         <v>0.45362921867776235</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>9812</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>21630</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>0.61013485901103393</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>1493</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>2447</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="I23" s="12">
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="I23" s="11">
         <v>0.66382806163828056</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <v>1637</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>2466</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="I24" s="10">
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="I24" s="9">
         <v>0.63319386331938632</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <v>1816</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>2868</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="I25" s="10">
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="I25" s="9">
         <v>0.57789693178433121</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <v>1940</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>3357</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="I26" s="10">
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="I26" s="9">
         <v>0.47018880423981452</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <v>2839</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <v>6038</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="I27" s="8">
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="I27" s="7">
         <v>0.62676056338028174</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="10">
         <v>4717</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="10">
         <v>7526</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="I28" s="10">
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="I28" s="9">
         <v>0.60954007043005021</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <v>5712</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <v>9371</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="I29" s="10">
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="I29" s="9">
         <v>0.52492571805876531</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="10">
         <v>7950</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="10">
         <v>15145</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <f>D30/E30</f>
         <v>0.6856240126382307</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>1302</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>1899</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>0.45362921867776235</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="10">
         <v>9812</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="10">
         <v>21630</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <f>D31/E31</f>
         <v>0.7287268074216251</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>1139</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>1563</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <v>0.47155812036273703</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <v>10868</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="10">
         <v>23047</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <f>D32/E32</f>
         <v>0.63132760267430754</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>1322</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>2094</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:5" ht="15" thickBot="1">
+      <c r="A33" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <f>D34/E34</f>
         <v>0.47155812036273703</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>10868</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>23047</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <f>D35/E35</f>
         <v>0.61013485901103393</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>1493</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>2447</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <f>D36/E36</f>
         <v>0.60954007043005021</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>5712</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>9371</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <f>D37/E37</f>
         <v>0.52492571805876531</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>7950</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>15145</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:5" ht="15" thickBot="1">
+      <c r="A38" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <f>D39/E39</f>
         <v>0.6818906001062135</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>1284</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>1883</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <f>D40/E40</f>
         <v>0.66850220264317184</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>1214</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>1816</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <f>D41/E41</f>
         <v>0.47018880423981452</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>2839</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>6038</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <f>D42/E42</f>
         <v>0.48026315789473684</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>1314</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>2736</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <f>D44/E44</f>
         <v>0.66382806163828056</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>1637</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>2466</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="C46" s="9"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <f>D48/E48</f>
         <v>0.41248541423570595</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>707</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>1714</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <f>D49/E49</f>
         <v>0.27796944307540661</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>1128</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>4058</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <f>D51/E51</f>
         <v>0.57789693178433121</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>1940</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>3357</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <f>D52/E52</f>
         <v>0.565879054865839</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>1413</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>2497</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="19"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="C53" s="9"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
+      <c r="C54" s="9"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1">
+      <c r="A55" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="23"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8881,6 +8798,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8892,761 +8814,761 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" s="24" customFormat="1">
+      <c r="A3" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="C3" s="23"/>
+    </row>
+    <row r="4" spans="1:14" s="24" customFormat="1">
+      <c r="A4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" s="24" customFormat="1"/>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
       <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30" t="s">
+      <c r="N6" s="76"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:14">
+      <c r="A8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="30">
         <v>39</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="30">
         <v>18</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="31">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="34">
         <v>17</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:14">
+      <c r="A11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="30">
         <v>7</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:14">
+      <c r="A12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="30">
         <v>3</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:14" s="24" customFormat="1" ht="15" thickBot="1">
+      <c r="A13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="37">
         <v>3</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30" t="s">
+    <row r="15" spans="1:14" s="24" customFormat="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:14" s="24" customFormat="1">
+      <c r="A16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="34">
         <v>75</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:14" s="24" customFormat="1">
+      <c r="A17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="34">
         <v>39</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:14" s="24" customFormat="1">
+      <c r="A18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="34">
         <v>37</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="34">
         <v>35</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="34">
         <v>28</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="34">
         <v>27</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="M21" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="31">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="34">
         <v>23</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N22" s="31">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="30">
         <v>18</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+    <row r="24" spans="1:14">
+      <c r="A24" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="34">
         <v>17</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+    <row r="25" spans="1:14">
+      <c r="A25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="34">
         <v>15</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+    <row r="26" spans="1:14">
+      <c r="A26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="34">
         <v>14</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+    <row r="27" spans="1:14">
+      <c r="A27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="34">
         <v>11</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:14">
+      <c r="A28" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="34">
         <v>9</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:14">
+      <c r="A29" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="34">
         <v>5</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+    <row r="30" spans="1:14" ht="15" thickBot="1">
+      <c r="A30" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="37">
         <v>4</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+    <row r="31" spans="1:14" ht="15" thickBot="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="27">
         <v>27</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+    <row r="33" spans="1:14">
+      <c r="A33" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="34">
         <v>25</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+    <row r="34" spans="1:14">
+      <c r="A34" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="34">
         <v>20</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:14" ht="15" thickBot="1">
+      <c r="A35" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="37">
         <v>7</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="M35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+    <row r="36" spans="1:14" ht="15" thickBot="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="27">
         <v>51</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:14">
+      <c r="A38" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="34">
         <v>27</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+    <row r="39" spans="1:14">
+      <c r="A39" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="34">
         <v>17</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
+    <row r="40" spans="1:14" ht="15" thickBot="1">
+      <c r="A40" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="37">
         <v>11</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+    <row r="41" spans="1:14" ht="15" thickBot="1">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="27">
         <v>26</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
+    <row r="43" spans="1:14">
+      <c r="A43" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="34">
         <v>15</v>
       </c>
-      <c r="M43" s="34" t="s">
+      <c r="M43" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N43" s="34">
+      <c r="N43" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
+    <row r="44" spans="1:14">
+      <c r="A44" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="34">
         <v>13</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="M44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
+    <row r="45" spans="1:14">
+      <c r="A45" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="34">
         <v>12</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
+    <row r="46" spans="1:14">
+      <c r="A46" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="34">
         <v>10</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="M46" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
+    <row r="47" spans="1:14">
+      <c r="A47" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="34">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
+    <row r="48" spans="1:14">
+      <c r="A48" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="34">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="34">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
+    <row r="52" spans="1:3" ht="15" thickBot="1">
+      <c r="A52" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C74" s="41"/>
-      <c r="E74" s="41"/>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="41"/>
+    <row r="74" spans="3:5">
+      <c r="C74" s="38"/>
+      <c r="E74" s="38"/>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="C75" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9654,6 +9576,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9665,9 +9592,9 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
@@ -9678,1967 +9605,2191 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+    <row r="2" spans="2:11" s="1" customFormat="1">
+      <c r="B2" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43" t="s">
+    <row r="3" spans="2:11" s="1" customFormat="1"/>
+    <row r="4" spans="2:11" ht="84">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+    <row r="5" spans="2:11" ht="28">
+      <c r="B5" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="41">
         <v>61.9</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="41">
         <v>6.8</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="41">
         <v>30</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="41">
         <v>16.7</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="41">
         <v>22.9</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+    <row r="6" spans="2:11" ht="28">
+      <c r="B6" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="41">
         <v>58.3</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="41">
         <v>7.1</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="41">
         <v>29.7</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="41">
         <v>30.9</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="41">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:11">
+      <c r="B7" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="41">
         <v>56.6</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="41">
         <v>7.7</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="41">
         <v>51</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="41">
         <v>49.5</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="41">
         <v>58.5</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="41">
         <v>56.2</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="41">
         <v>10</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44" t="s">
+      <c r="G8" s="41"/>
+      <c r="H8" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="41">
         <v>23.4</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="41">
         <v>11.6</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="41">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="41">
         <v>55.3</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="41">
         <v>10.8</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44" t="s">
+      <c r="G9" s="41"/>
+      <c r="H9" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="41">
         <v>41.2</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="41">
         <v>29.9</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="41">
         <v>53.9</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+    <row r="10" spans="2:11" ht="28">
+      <c r="B10" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="41">
         <v>53.3</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="41">
         <v>11.3</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="41">
         <v>25.9</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
+    <row r="11" spans="2:11">
+      <c r="B11" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="41">
         <v>53</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="41">
         <v>11.3</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="41">
         <v>22.9</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
+    <row r="12" spans="2:11">
+      <c r="B12" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="41">
         <v>49.8</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="41">
         <v>11.5</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44" t="s">
+      <c r="G12" s="41"/>
+      <c r="H12" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="41">
         <v>38.1</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="41">
         <v>16.899999999999999</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="41">
         <v>23.3</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
+    <row r="13" spans="2:11" ht="28">
+      <c r="B13" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="41">
         <v>48.8</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="41">
         <v>12.2</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="41">
         <v>28.9</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="41">
         <v>20.6</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="41">
         <v>29.5</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="2:11">
+      <c r="B14" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="41">
         <v>45.4</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="41">
         <v>13.4</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="41">
         <v>29.7</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="44" t="s">
+    <row r="15" spans="2:11">
+      <c r="B15" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="41">
         <v>42.7</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="41">
         <v>13.5</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44" t="s">
+      <c r="G15" s="41"/>
+      <c r="H15" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="41">
         <v>32.4</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
+    <row r="16" spans="2:11" ht="28">
+      <c r="B16" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="41">
         <v>41.6</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="41">
         <v>13.6</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44" t="s">
+      <c r="G16" s="41"/>
+      <c r="H16" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="41">
         <v>31.9</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="41">
         <v>35</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="41">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
+    <row r="17" spans="2:11">
+      <c r="B17" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="41">
         <v>40.1</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="41">
         <v>14.2</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44" t="s">
+      <c r="G17" s="41"/>
+      <c r="H17" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <v>11.4</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+    <row r="18" spans="2:11">
+      <c r="B18" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="41">
         <v>35.299999999999997</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="41">
         <v>14.9</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44" t="s">
+      <c r="G18" s="41"/>
+      <c r="H18" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="41">
         <v>33.9</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="41">
         <v>32.6</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="41">
         <v>40.1</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+    <row r="19" spans="2:11">
+      <c r="B19" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="41">
         <v>34.799999999999997</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="41">
         <v>15.1</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="44" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="41">
         <v>11</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="41">
         <v>8.5</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="41">
         <v>19.5</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
+    <row r="20" spans="2:11">
+      <c r="B20" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="41">
         <v>33.4</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="41">
         <v>15.3</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="44" t="s">
+      <c r="G20" s="42"/>
+      <c r="H20" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="41">
         <v>27.1</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="41">
         <v>24.1</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="41">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
+    <row r="21" spans="2:11">
+      <c r="B21" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="41">
         <v>33.1</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="41">
         <v>15.6</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="41">
         <v>49.8</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
+    <row r="22" spans="2:11">
+      <c r="B22" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="41">
         <v>33.1</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44" t="s">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="41">
         <v>16.399999999999999</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44" t="s">
+      <c r="G22" s="41"/>
+      <c r="H22" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="41">
         <v>24.3</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="44" t="s">
+    <row r="23" spans="2:11" ht="28">
+      <c r="B23" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="41">
         <v>31.8</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44" t="s">
+      <c r="D23" s="41"/>
+      <c r="E23" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="41">
         <v>16.7</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44" t="s">
+      <c r="G23" s="41"/>
+      <c r="H23" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="41">
         <v>24.8</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
+    <row r="24" spans="2:11" ht="28">
+      <c r="B24" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="41">
         <v>31.8</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44" t="s">
+      <c r="D24" s="41"/>
+      <c r="E24" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="41">
         <v>17.2</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44" t="s">
+      <c r="G24" s="41"/>
+      <c r="H24" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="41">
         <v>25</v>
       </c>
-      <c r="J24" s="45" t="s">
+      <c r="J24" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="45" t="s">
+      <c r="K24" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
+    <row r="25" spans="2:11">
+      <c r="B25" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="41">
         <v>31.6</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="41">
         <v>17.399999999999999</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44" t="s">
+      <c r="G25" s="41"/>
+      <c r="H25" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="41">
         <v>24.7</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="41">
         <v>18</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="41">
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
+    <row r="26" spans="2:11">
+      <c r="B26" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="41">
         <v>28.6</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44" t="s">
+      <c r="D26" s="41"/>
+      <c r="E26" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="41">
         <v>19.7</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="44" t="s">
+      <c r="G26" s="42"/>
+      <c r="H26" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="41">
         <v>42.5</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="41">
         <v>42.6</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="41">
         <v>42.6</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
+    <row r="27" spans="2:11">
+      <c r="B27" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="41">
         <v>26.6</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44" t="s">
+      <c r="D27" s="41"/>
+      <c r="E27" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="41">
         <v>21</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44" t="s">
+      <c r="G27" s="41"/>
+      <c r="H27" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="41">
         <v>40.1</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="41">
         <v>20.9</v>
       </c>
-      <c r="K27" s="44">
+      <c r="K27" s="41">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="44" t="s">
+    <row r="28" spans="2:11">
+      <c r="B28" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="41">
         <v>26.3</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44" t="s">
+      <c r="D28" s="41"/>
+      <c r="E28" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="41">
         <v>21.6</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="44" t="s">
+      <c r="G28" s="42"/>
+      <c r="H28" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="41">
         <v>10.1</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="41">
         <v>7.6</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="41">
         <v>25.6</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="44" t="s">
+    <row r="29" spans="2:11">
+      <c r="B29" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="41">
         <v>25.4</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44" t="s">
+      <c r="D29" s="41"/>
+      <c r="E29" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="41">
         <v>23.8</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="44" t="s">
+      <c r="G29" s="42"/>
+      <c r="H29" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="41">
         <v>20.8</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="41">
         <v>20.8</v>
       </c>
-      <c r="K29" s="44">
+      <c r="K29" s="41">
         <v>18.8</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="44" t="s">
+    <row r="30" spans="2:11" ht="28">
+      <c r="B30" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="41">
         <v>24.4</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44" t="s">
+      <c r="D30" s="41"/>
+      <c r="E30" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="41">
         <v>26.9</v>
       </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="44" t="s">
+      <c r="G30" s="42"/>
+      <c r="H30" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="41">
         <v>13.5</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="41">
         <v>10.5</v>
       </c>
-      <c r="K30" s="44">
+      <c r="K30" s="41">
         <v>30.7</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="44" t="s">
+    <row r="31" spans="2:11" ht="28">
+      <c r="B31" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="41">
         <v>23.9</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44" t="s">
+      <c r="D31" s="41"/>
+      <c r="E31" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="41">
         <v>28.2</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44" t="s">
+      <c r="G31" s="41"/>
+      <c r="H31" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="41">
         <v>23</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K31" s="45" t="s">
+      <c r="K31" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="44" t="s">
+    <row r="32" spans="2:11" ht="28">
+      <c r="B32" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="41">
         <v>22.6</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="41">
         <v>29.9</v>
       </c>
-      <c r="G32" s="45"/>
-      <c r="H32" s="44" t="s">
+      <c r="G32" s="42"/>
+      <c r="H32" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="I32" s="44">
+      <c r="I32" s="41">
         <v>29.1</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="41">
         <v>26.6</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="41">
         <v>41.9</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="44" t="s">
+    <row r="33" spans="2:11" ht="28">
+      <c r="B33" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="41">
         <v>22.3</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44" t="s">
+      <c r="D33" s="41"/>
+      <c r="E33" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44" t="s">
+      <c r="G33" s="41"/>
+      <c r="H33" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="41">
         <v>26.6</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="41">
         <v>10.3</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="41">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="44" t="s">
+    <row r="34" spans="2:11" ht="28">
+      <c r="B34" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="41">
         <v>21.3</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44" t="s">
+      <c r="D34" s="41"/>
+      <c r="E34" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="44" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="41">
         <v>16.2</v>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="41">
         <v>15.2</v>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="41">
         <v>31.9</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="44" t="s">
+    <row r="35" spans="2:11">
+      <c r="B35" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="41">
         <v>20</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="44" t="s">
+      <c r="G35" s="42"/>
+      <c r="H35" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="I35" s="44">
+      <c r="I35" s="41">
         <v>16.100000000000001</v>
       </c>
-      <c r="J35" s="44">
+      <c r="J35" s="41">
         <v>19</v>
       </c>
-      <c r="K35" s="44">
+      <c r="K35" s="41">
         <v>26.6</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="44" t="s">
+    <row r="36" spans="2:11" ht="28">
+      <c r="B36" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="41">
         <v>19.899999999999999</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="44" t="s">
+      <c r="G36" s="42"/>
+      <c r="H36" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="I36" s="44">
+      <c r="I36" s="41">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="41">
         <v>3.9</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K36" s="41">
         <v>13.6</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="44" t="s">
+    <row r="37" spans="2:11" ht="28">
+      <c r="B37" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="44">
+      <c r="C37" s="41">
         <v>19.2</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44" t="s">
+      <c r="D37" s="41"/>
+      <c r="E37" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44" t="s">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="44">
+      <c r="I37" s="41">
         <v>21.6</v>
       </c>
-      <c r="J37" s="44">
+      <c r="J37" s="41">
         <v>12.1</v>
       </c>
-      <c r="K37" s="44">
+      <c r="K37" s="41">
         <v>23.4</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="44" t="s">
+    <row r="38" spans="2:11">
+      <c r="B38" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C38" s="41">
         <v>18.399999999999999</v>
       </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44" t="s">
+      <c r="D38" s="41"/>
+      <c r="E38" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44" t="s">
+      <c r="G38" s="41"/>
+      <c r="H38" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="I38" s="44">
+      <c r="I38" s="41">
         <v>38.4</v>
       </c>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="45" t="s">
+      <c r="K38" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="44" t="s">
+    <row r="39" spans="2:11" ht="28">
+      <c r="B39" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C39" s="41">
         <v>17.600000000000001</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44" t="s">
+      <c r="D39" s="41"/>
+      <c r="E39" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44" t="s">
+      <c r="G39" s="41"/>
+      <c r="H39" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="41">
         <v>13.4</v>
       </c>
-      <c r="J39" s="45" t="s">
+      <c r="J39" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K39" s="45" t="s">
+      <c r="K39" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="44" t="s">
+    <row r="40" spans="2:11" ht="28">
+      <c r="B40" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C40" s="41">
         <v>17.3</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44" t="s">
+      <c r="D40" s="41"/>
+      <c r="E40" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="44" t="s">
+      <c r="G40" s="42"/>
+      <c r="H40" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="I40" s="44">
+      <c r="I40" s="41">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J40" s="41">
         <v>2.6</v>
       </c>
-      <c r="K40" s="44">
+      <c r="K40" s="41">
         <v>11.7</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="44" t="s">
+    <row r="41" spans="2:11" ht="28">
+      <c r="B41" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C41" s="41">
         <v>16.899999999999999</v>
       </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44" t="s">
+      <c r="D41" s="41"/>
+      <c r="E41" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="44" t="s">
+      <c r="G41" s="42"/>
+      <c r="H41" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="I41" s="44">
+      <c r="I41" s="41">
         <v>30</v>
       </c>
-      <c r="J41" s="44">
+      <c r="J41" s="41">
         <v>26.5</v>
       </c>
-      <c r="K41" s="44">
+      <c r="K41" s="41">
         <v>30.8</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="44" t="s">
+    <row r="42" spans="2:11">
+      <c r="B42" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C42" s="41">
         <v>15.7</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44" t="s">
+      <c r="D42" s="41"/>
+      <c r="E42" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44" t="s">
+      <c r="G42" s="41"/>
+      <c r="H42" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="44">
+      <c r="I42" s="41">
         <v>27.8</v>
       </c>
-      <c r="J42" s="44">
+      <c r="J42" s="41">
         <v>11.3</v>
       </c>
-      <c r="K42" s="44">
+      <c r="K42" s="41">
         <v>32.9</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="44" t="s">
+    <row r="43" spans="2:11" ht="28">
+      <c r="B43" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="41">
         <v>15.1</v>
       </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44" t="s">
+      <c r="D43" s="41"/>
+      <c r="E43" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44" t="s">
+      <c r="G43" s="41"/>
+      <c r="H43" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I43" s="44">
+      <c r="I43" s="41">
         <v>18.5</v>
       </c>
-      <c r="J43" s="44">
+      <c r="J43" s="41">
         <v>11.7</v>
       </c>
-      <c r="K43" s="44">
+      <c r="K43" s="41">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="44" t="s">
+    <row r="44" spans="2:11" ht="28">
+      <c r="B44" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="41">
         <v>7.9</v>
       </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44" t="s">
+      <c r="D44" s="41"/>
+      <c r="E44" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="45" t="s">
+      <c r="F44" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44" t="s">
+      <c r="G44" s="41"/>
+      <c r="H44" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I44" s="44">
+      <c r="I44" s="41">
         <v>17.399999999999999</v>
       </c>
-      <c r="J44" s="45" t="s">
+      <c r="J44" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K44" s="45" t="s">
+      <c r="K44" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="44" t="s">
+    <row r="45" spans="2:11">
+      <c r="B45" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="41">
         <v>4.2</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44" t="s">
+      <c r="D45" s="41"/>
+      <c r="E45" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="45" t="s">
+      <c r="F45" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44" t="s">
+      <c r="G45" s="41"/>
+      <c r="H45" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="I45" s="44">
+      <c r="I45" s="41">
         <v>40.4</v>
       </c>
-      <c r="J45" s="45" t="s">
+      <c r="J45" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K45" s="45" t="s">
+      <c r="K45" s="42" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="B1" s="43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1"/>
+    <row r="3" spans="1:6" s="46" customFormat="1">
+      <c r="B3" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-    </row>
-    <row r="4" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" s="49" customFormat="1">
+      <c r="B4" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-    </row>
-    <row r="5" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+    </row>
+    <row r="5" spans="1:6" s="52" customFormat="1">
+      <c r="B5" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-    </row>
-    <row r="6" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-    </row>
-    <row r="7" spans="1:5" s="55" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+    </row>
+    <row r="6" spans="1:6" s="52" customFormat="1">
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+    </row>
+    <row r="7" spans="1:6" s="52" customFormat="1" ht="70">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="58"/>
-    </row>
-    <row r="8" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62" t="s">
+      <c r="D7" s="55"/>
+    </row>
+    <row r="8" spans="1:6" s="52" customFormat="1">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="F8" s="60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="55" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65" t="s">
+    <row r="9" spans="1:6" s="52" customFormat="1" ht="28">
+      <c r="B9" s="61"/>
+      <c r="C9" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="D9" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-    </row>
-    <row r="10" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+    </row>
+    <row r="10" spans="1:6" s="67" customFormat="1">
+      <c r="A10" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="64">
+        <v>2</v>
+      </c>
+      <c r="E10" s="78">
+        <v>2006</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="67" customFormat="1" ht="13">
+      <c r="A11" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="67" customFormat="1">
+      <c r="A12" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="64">
+        <v>10.5</v>
+      </c>
+      <c r="D12" s="64">
+        <v>31.9</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="67" customFormat="1" ht="13">
+      <c r="A13" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="67" customFormat="1">
+      <c r="A14" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="64">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D14" s="64">
+        <v>51.6</v>
+      </c>
+      <c r="E14" s="65">
+        <v>2010</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="67" customFormat="1">
+      <c r="A15" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="64">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E15" s="65">
+        <v>2010</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="67" customFormat="1">
+      <c r="A16" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="64">
+        <v>13.4</v>
+      </c>
+      <c r="D16" s="64">
+        <v>38.4</v>
+      </c>
+      <c r="E16" s="65">
+        <v>2011</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="67" customFormat="1">
+      <c r="A17" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D17" s="64">
+        <v>18</v>
+      </c>
+      <c r="E17" s="65">
+        <v>2005</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="67" customFormat="1">
+      <c r="A18" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="64">
+        <v>29</v>
+      </c>
+      <c r="D18" s="64">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="E18" s="65">
+        <v>2010</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="67" customFormat="1">
+      <c r="A19" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="64">
+        <v>10</v>
+      </c>
+      <c r="D19" s="64">
+        <v>31.6</v>
+      </c>
+      <c r="E19" s="65">
+        <v>2012</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="67" customFormat="1">
+      <c r="A20" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="64">
+        <v>6.1</v>
+      </c>
+      <c r="D20" s="64">
+        <v>32.6</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="67" customFormat="1">
+      <c r="A21" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="64">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D21" s="64">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="67" customFormat="1">
+      <c r="A22" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="D22" s="64">
+        <v>5.4</v>
+      </c>
+      <c r="E22" s="65">
+        <v>2006</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="67" customFormat="1">
+      <c r="A23" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="64">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D23" s="64">
+        <v>39.4</v>
+      </c>
+      <c r="E23" s="65">
+        <v>2010</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="67" customFormat="1" ht="13">
+      <c r="A24" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="67" customFormat="1">
+      <c r="A25" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="64">
+        <v>8.6</v>
+      </c>
+      <c r="D25" s="64">
+        <v>29.5</v>
+      </c>
+      <c r="E25" s="65">
+        <v>2011</v>
+      </c>
+      <c r="F25" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="67" customFormat="1">
+      <c r="A26" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="64">
+        <v>12.9</v>
+      </c>
+      <c r="D26" s="64">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E26" s="65">
+        <v>2010</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="67" customFormat="1">
+      <c r="A27" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="64">
+        <v>16.3</v>
+      </c>
+      <c r="D27" s="64">
+        <v>41</v>
+      </c>
+      <c r="E27" s="65">
+        <v>2011</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="67" customFormat="1">
+      <c r="A28" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="64">
+        <v>5.6</v>
+      </c>
+      <c r="D28" s="64">
+        <v>21.9</v>
+      </c>
+      <c r="E28" s="65">
+        <v>2012</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="67" customFormat="1">
+      <c r="A29" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="64">
+        <v>7.3</v>
+      </c>
+      <c r="D29" s="64">
+        <v>36.4</v>
+      </c>
+      <c r="E29" s="65">
+        <v>2010</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="67" customFormat="1">
+      <c r="A30" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="64">
+        <v>5</v>
+      </c>
+      <c r="D30" s="64">
+        <v>20.7</v>
+      </c>
+      <c r="E30" s="66">
+        <v>2011</v>
+      </c>
+      <c r="F30" s="66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="67" customFormat="1">
+      <c r="A31" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="64">
+        <v>21.3</v>
+      </c>
+      <c r="D31" s="64">
+        <v>51.7</v>
+      </c>
+      <c r="E31" s="65">
+        <v>2012</v>
+      </c>
+      <c r="F31" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="67" customFormat="1">
+      <c r="A32" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="64">
+        <v>6.5</v>
+      </c>
+      <c r="D32" s="64">
+        <v>22</v>
+      </c>
+      <c r="E32" s="65">
+        <v>2010</v>
+      </c>
+      <c r="F32" s="66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="67" customFormat="1">
+      <c r="A33" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="64">
+        <v>6.2</v>
+      </c>
+      <c r="D33" s="64">
+        <v>26.4</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="67" customFormat="1">
+      <c r="A34" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D34" s="64">
+        <v>18.8</v>
+      </c>
+      <c r="E34" s="65">
+        <v>2009</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="67" customFormat="1">
+      <c r="A35" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="64">
+        <v>10.8</v>
+      </c>
+      <c r="D35" s="64">
+        <v>37.9</v>
+      </c>
+      <c r="E35" s="65">
+        <v>2007</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="67" customFormat="1" ht="13">
+      <c r="A36" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="67" customFormat="1">
+      <c r="A37" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="64">
+        <v>12.4</v>
+      </c>
+      <c r="D37" s="64">
+        <v>41.2</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="67" customFormat="1">
+      <c r="A38" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="64">
+        <v>11.7</v>
+      </c>
+      <c r="D38" s="64">
+        <v>49.6</v>
+      </c>
+      <c r="E38" s="65">
+        <v>2010</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="67" customFormat="1">
+      <c r="A39" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="64">
+        <v>14.5</v>
+      </c>
+      <c r="D39" s="64">
+        <v>55</v>
+      </c>
+      <c r="E39" s="65">
+        <v>2010</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="67" customFormat="1">
+      <c r="A40" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="64">
+        <v>14.2</v>
+      </c>
+      <c r="D40" s="64">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E40" s="65">
+        <v>2011</v>
+      </c>
+      <c r="F40" s="66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="67" customFormat="1" ht="13">
+      <c r="A41" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="67" customFormat="1" ht="13">
+      <c r="A42" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="67" customFormat="1">
+      <c r="A43" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="64">
+        <v>14.3</v>
+      </c>
+      <c r="D43" s="64">
+        <v>48.2</v>
+      </c>
+      <c r="E43" s="65">
+        <v>2011</v>
+      </c>
+      <c r="F43" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="67" customFormat="1">
+      <c r="A44" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="64">
+        <v>2.4</v>
+      </c>
+      <c r="D44" s="64">
+        <v>8.6</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="67" customFormat="1">
+      <c r="A45" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B45" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="64">
         <v>28</v>
       </c>
-      <c r="C10" s="67">
+      <c r="D45" s="64">
         <v>76.3</v>
       </c>
-      <c r="D10" s="68">
+      <c r="E45" s="65">
         <v>2012</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="F45" s="66" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="67">
-        <v>29</v>
-      </c>
-      <c r="C11" s="67">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="D11" s="68">
+    <row r="46" spans="1:6" s="67" customFormat="1">
+      <c r="A46" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="64">
+        <v>17.3</v>
+      </c>
+      <c r="D46" s="64">
+        <v>42.8</v>
+      </c>
+      <c r="E46" s="65">
+        <v>2013</v>
+      </c>
+      <c r="F46" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="67" customFormat="1" ht="13">
+      <c r="A47" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="67" customFormat="1">
+      <c r="A48" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="64">
+        <v>5</v>
+      </c>
+      <c r="D48" s="64">
+        <v>34.4</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="67" customFormat="1">
+      <c r="A49" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="64">
+        <v>12</v>
+      </c>
+      <c r="D49" s="64">
+        <v>32.9</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="67" customFormat="1" ht="13">
+      <c r="A50" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="67" customFormat="1">
+      <c r="A51" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="64">
+        <v>17.7</v>
+      </c>
+      <c r="D51" s="64">
+        <v>43.7</v>
+      </c>
+      <c r="E51" s="65">
         <v>2010</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="F51" s="66" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="64">
+        <v>45</v>
+      </c>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="64">
+        <v>0.8</v>
+      </c>
+      <c r="D53" s="64">
+        <v>5.6</v>
+      </c>
+      <c r="E53" s="65">
+        <v>2003</v>
+      </c>
+      <c r="F53" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="64">
+        <v>8.9</v>
+      </c>
+      <c r="D54" s="64">
+        <v>51.5</v>
+      </c>
+      <c r="E54" s="65">
+        <v>2010</v>
+      </c>
+      <c r="F54" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="67">
-        <v>29.1</v>
-      </c>
-      <c r="C12" s="67">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="D12" s="68">
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="64">
+        <v>7.2</v>
+      </c>
+      <c r="D55" s="64">
+        <v>32.9</v>
+      </c>
+      <c r="E55" s="65">
         <v>2010</v>
       </c>
-      <c r="E12" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="67">
-        <v>14.5</v>
-      </c>
-      <c r="C13" s="67">
-        <v>55</v>
-      </c>
-      <c r="D13" s="68">
-        <v>2010</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="67">
-        <v>21.3</v>
-      </c>
-      <c r="C14" s="67">
-        <v>51.7</v>
-      </c>
-      <c r="D14" s="68">
-        <v>2012</v>
-      </c>
-      <c r="E14" s="69" t="s">
+      <c r="F55" s="66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="64">
+        <v>9.9</v>
+      </c>
+      <c r="D60" s="64">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E60" s="65">
+        <v>2011</v>
+      </c>
+      <c r="F60" s="66" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="67">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C15" s="67">
-        <v>51.6</v>
-      </c>
-      <c r="D15" s="68">
-        <v>2010</v>
-      </c>
-      <c r="E15" s="69" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="64">
+        <v>8.5</v>
+      </c>
+      <c r="D61" s="64">
+        <v>41.6</v>
+      </c>
+      <c r="E61" s="65">
+        <v>2007</v>
+      </c>
+      <c r="F61" s="66" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="67">
-        <v>8.9</v>
-      </c>
-      <c r="C16" s="67">
-        <v>51.5</v>
-      </c>
-      <c r="D16" s="68">
-        <v>2010</v>
-      </c>
-      <c r="E16" s="69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="67">
-        <v>11.7</v>
-      </c>
-      <c r="C17" s="67">
-        <v>49.6</v>
-      </c>
-      <c r="D17" s="68">
-        <v>2010</v>
-      </c>
-      <c r="E17" s="69" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="64">
+        <v>3.9</v>
+      </c>
+      <c r="D62" s="64">
+        <v>30.5</v>
+      </c>
+      <c r="E62" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" s="66" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="67">
-        <v>14.3</v>
-      </c>
-      <c r="C18" s="67">
-        <v>48.2</v>
-      </c>
-      <c r="D18" s="68">
-        <v>2011</v>
-      </c>
-      <c r="E18" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="67">
-        <v>17.7</v>
-      </c>
-      <c r="C19" s="67">
-        <v>43.7</v>
-      </c>
-      <c r="D19" s="68">
-        <v>2010</v>
-      </c>
-      <c r="E19" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="67">
-        <v>17.3</v>
-      </c>
-      <c r="C20" s="67">
-        <v>42.8</v>
-      </c>
-      <c r="D20" s="68">
-        <v>2013</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="67">
-        <v>8.5</v>
-      </c>
-      <c r="C21" s="67">
-        <v>41.6</v>
-      </c>
-      <c r="D21" s="68">
-        <v>2007</v>
-      </c>
-      <c r="E21" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="67">
-        <v>12.4</v>
-      </c>
-      <c r="C22" s="67">
-        <v>41.2</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="67">
-        <v>16.3</v>
-      </c>
-      <c r="C23" s="67">
-        <v>41</v>
-      </c>
-      <c r="D23" s="68">
-        <v>2011</v>
-      </c>
-      <c r="E23" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="67">
-        <v>12.9</v>
-      </c>
-      <c r="C24" s="67">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="D24" s="68">
-        <v>2010</v>
-      </c>
-      <c r="E24" s="69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="67">
-        <v>9.9</v>
-      </c>
-      <c r="C25" s="67">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="D25" s="68">
-        <v>2011</v>
-      </c>
-      <c r="E25" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="67">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C26" s="67">
-        <v>39.4</v>
-      </c>
-      <c r="D26" s="68">
-        <v>2010</v>
-      </c>
-      <c r="E26" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="67">
-        <v>13.4</v>
-      </c>
-      <c r="C27" s="67">
-        <v>38.4</v>
-      </c>
-      <c r="D27" s="68">
-        <v>2011</v>
-      </c>
-      <c r="E27" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="67">
-        <v>10.8</v>
-      </c>
-      <c r="C28" s="67">
-        <v>37.9</v>
-      </c>
-      <c r="D28" s="68">
-        <v>2007</v>
-      </c>
-      <c r="E28" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="67">
-        <v>7.3</v>
-      </c>
-      <c r="C29" s="67">
-        <v>36.4</v>
-      </c>
-      <c r="D29" s="68">
-        <v>2010</v>
-      </c>
-      <c r="E29" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="67">
-        <v>5</v>
-      </c>
-      <c r="C30" s="67">
-        <v>34.4</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="67">
-        <v>14.2</v>
-      </c>
-      <c r="C31" s="67">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="D31" s="68">
-        <v>2011</v>
-      </c>
-      <c r="E31" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="67">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C32" s="67">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="67">
-        <v>12</v>
-      </c>
-      <c r="C33" s="67">
-        <v>32.9</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="67">
-        <v>7.2</v>
-      </c>
-      <c r="C34" s="67">
-        <v>32.9</v>
-      </c>
-      <c r="D34" s="68">
-        <v>2010</v>
-      </c>
-      <c r="E34" s="69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="67">
-        <v>6.1</v>
-      </c>
-      <c r="C35" s="67">
-        <v>32.6</v>
-      </c>
-      <c r="D35" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="67">
-        <v>10.5</v>
-      </c>
-      <c r="C36" s="67">
-        <v>31.9</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="67">
-        <v>10</v>
-      </c>
-      <c r="C37" s="67">
-        <v>31.6</v>
-      </c>
-      <c r="D37" s="68">
-        <v>2012</v>
-      </c>
-      <c r="E37" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="67">
-        <v>3.9</v>
-      </c>
-      <c r="C38" s="67">
-        <v>30.5</v>
-      </c>
-      <c r="D38" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="67">
-        <v>8.6</v>
-      </c>
-      <c r="C39" s="67">
-        <v>29.5</v>
-      </c>
-      <c r="D39" s="68">
-        <v>2011</v>
-      </c>
-      <c r="E39" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="67">
-        <v>6.2</v>
-      </c>
-      <c r="C40" s="67">
-        <v>26.4</v>
-      </c>
-      <c r="D40" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="67">
-        <v>6.5</v>
-      </c>
-      <c r="C41" s="67">
-        <v>22</v>
-      </c>
-      <c r="D41" s="68">
-        <v>2010</v>
-      </c>
-      <c r="E41" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="67">
-        <v>5.6</v>
-      </c>
-      <c r="C42" s="67">
-        <v>21.9</v>
-      </c>
-      <c r="D42" s="68">
-        <v>2012</v>
-      </c>
-      <c r="E42" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="67">
-        <v>5</v>
-      </c>
-      <c r="C43" s="67">
-        <v>20.7</v>
-      </c>
-      <c r="D43" s="69">
-        <v>2011</v>
-      </c>
-      <c r="E43" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="67">
-        <v>2.5</v>
-      </c>
-      <c r="C44" s="67">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="D44" s="68">
-        <v>2010</v>
-      </c>
-      <c r="E44" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="67">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C45" s="67">
-        <v>18.8</v>
-      </c>
-      <c r="D45" s="68">
-        <v>2009</v>
-      </c>
-      <c r="E45" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="67">
-        <v>2.8</v>
-      </c>
-      <c r="C46" s="67">
-        <v>18</v>
-      </c>
-      <c r="D46" s="68">
-        <v>2005</v>
-      </c>
-      <c r="E46" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="67">
-        <v>2.4</v>
-      </c>
-      <c r="C47" s="67">
-        <v>8.6</v>
-      </c>
-      <c r="D47" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="67">
-        <v>0.8</v>
-      </c>
-      <c r="C48" s="67">
-        <v>5.6</v>
-      </c>
-      <c r="D48" s="68">
-        <v>2003</v>
-      </c>
-      <c r="E48" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="67">
-        <v>1.8</v>
-      </c>
-      <c r="C49" s="67">
-        <v>5.4</v>
-      </c>
-      <c r="D49" s="68">
-        <v>2006</v>
-      </c>
-      <c r="E49" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50" s="67">
-        <v>12.201614995944922</v>
-      </c>
-      <c r="C50" s="67">
-        <v>39.504592073472345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="70" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-    </row>
   </sheetData>
+  <sortState ref="B10:F49">
+    <sortCondition ref="B10"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11650,135 +11801,135 @@
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:10" s="70" customFormat="1">
+      <c r="A1" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:10">
+      <c r="D7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="77">
+      <c r="B8" s="71">
         <v>19700</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="72">
         <f>B8/C13</f>
         <v>0.45287356321839078</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="77">
+        <v>159</v>
+      </c>
+      <c r="B9" s="71">
         <v>13400</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="72">
         <f>B9/C13</f>
         <v>0.30804597701149428</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="77">
+        <v>160</v>
+      </c>
+      <c r="B10" s="71">
         <v>6900</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="72">
         <f>B10/C13</f>
         <v>0.15862068965517243</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="77">
+        <v>161</v>
+      </c>
+      <c r="B11" s="71">
         <v>3300</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="72">
         <f>B11/C13</f>
         <v>7.586206896551724E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="77">
+        <v>162</v>
+      </c>
+      <c r="B12" s="71">
         <v>200</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="72">
         <f>B12/C13</f>
         <v>4.5977011494252873E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="79">
+    <row r="13" spans="1:10">
+      <c r="C13" s="73">
         <f>SUM(B8:B12)</f>
         <v>43500</v>
       </c>
@@ -11788,6 +11939,11 @@
     <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11799,9 +11955,14 @@
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11811,9 +11972,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11823,8 +11989,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>